--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R0189c6b8a0b04842"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R681c617c8e8d43e6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -74,7 +74,7 @@
         <x:v>test:1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-03T20:36:03</x:v>
+        <x:v>2020-02-03T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +85,7 @@
         <x:v>test:2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-02T20:36:03</x:v>
+        <x:v>2020-02-02T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +96,7 @@
         <x:v>test:3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-01T20:36:03</x:v>
+        <x:v>2020-02-01T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +107,7 @@
         <x:v>test:4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-31T20:36:03</x:v>
+        <x:v>2020-01-31T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +118,7 @@
         <x:v>test:5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-30T20:36:03</x:v>
+        <x:v>2020-01-30T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +129,7 @@
         <x:v>test:6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-29T20:36:03</x:v>
+        <x:v>2020-01-29T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +140,7 @@
         <x:v>test:7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-28T20:36:03</x:v>
+        <x:v>2020-01-28T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +151,7 @@
         <x:v>test:8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-27T20:36:03</x:v>
+        <x:v>2020-01-27T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +162,7 @@
         <x:v>test:9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-26T20:36:03</x:v>
+        <x:v>2020-01-26T20:51:47</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +173,7 @@
         <x:v>test:10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-25T20:36:03</x:v>
+        <x:v>2020-01-25T20:51:47</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R681c617c8e8d43e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R19b6e76add774f9e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -74,7 +74,7 @@
         <x:v>test:1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-03T20:51:47</x:v>
+        <x:v>2020-02-06T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +85,7 @@
         <x:v>test:2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-02T20:51:47</x:v>
+        <x:v>2020-02-05T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +96,7 @@
         <x:v>test:3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-01T20:51:47</x:v>
+        <x:v>2020-02-04T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +107,7 @@
         <x:v>test:4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-31T20:51:47</x:v>
+        <x:v>2020-02-03T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +118,7 @@
         <x:v>test:5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-30T20:51:47</x:v>
+        <x:v>2020-02-02T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +129,7 @@
         <x:v>test:6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-29T20:51:47</x:v>
+        <x:v>2020-02-01T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +140,7 @@
         <x:v>test:7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-28T20:51:47</x:v>
+        <x:v>2020-01-31T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +151,7 @@
         <x:v>test:8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-27T20:51:47</x:v>
+        <x:v>2020-01-30T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +162,7 @@
         <x:v>test:9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-26T20:51:47</x:v>
+        <x:v>2020-01-29T13:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +173,7 @@
         <x:v>test:10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-25T20:51:47</x:v>
+        <x:v>2020-01-28T13:24:56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R19b6e76add774f9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="Rebbf3fcbe68a484f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -57,123 +57,123 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="A" s="1" t="str">
-        <x:v>MyColumnName#1</x:v>
+        <x:v>Column #1</x:v>
       </x:c>
       <x:c r="B" s="1" t="str">
-        <x:v>MyColumnName#2</x:v>
+        <x:v>Column #2</x:v>
       </x:c>
       <x:c r="C" s="1" t="str">
-        <x:v>MyColumnName#3</x:v>
+        <x:v>Column #3</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="A" s="0" t="str">
         <x:v>Text #1</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:1000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-06T13:24:56</x:v>
+        <x:v>2021-11-05T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A" s="0" t="str">
         <x:v>Text #2</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:2000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-05T13:24:56</x:v>
+        <x:v>2021-11-04T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A" s="0" t="str">
         <x:v>Text #3</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:3000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-04T13:24:56</x:v>
+        <x:v>2021-11-03T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A" s="0" t="str">
         <x:v>Text #4</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:4000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-03T13:24:56</x:v>
+        <x:v>2021-11-02T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A" s="0" t="str">
         <x:v>Text #5</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:5000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-02T13:24:56</x:v>
+        <x:v>2021-11-01T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A" s="0" t="str">
         <x:v>Text #6</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:6000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-02-01T13:24:56</x:v>
+        <x:v>2021-10-31T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A" s="0" t="str">
         <x:v>Text #7</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:7000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-31T13:24:56</x:v>
+        <x:v>2021-10-30T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A" s="0" t="str">
         <x:v>Text #8</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:8000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-30T13:24:56</x:v>
+        <x:v>2021-10-29T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A" s="0" t="str">
         <x:v>Text #9</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:9000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-29T13:24:56</x:v>
+        <x:v>2021-10-28T16:57:50</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A" s="0" t="str">
         <x:v>Text #10</x:v>
       </x:c>
-      <x:c r="B" s="0" t="str">
-        <x:v>test:10000</x:v>
+      <x:c r="B" s="0" t="n">
+        <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2020-01-28T13:24:56</x:v>
+        <x:v>2021-10-27T16:57:50</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="Rebbf3fcbe68a484f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R7bded9d9d57a486f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -74,7 +74,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T16:57:50</x:v>
+        <x:v>2021-11-06T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +85,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T16:57:50</x:v>
+        <x:v>2021-11-05T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +96,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T16:57:50</x:v>
+        <x:v>2021-11-04T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +107,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T16:57:50</x:v>
+        <x:v>2021-11-03T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +118,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T16:57:50</x:v>
+        <x:v>2021-11-02T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +129,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T16:57:50</x:v>
+        <x:v>2021-11-01T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +140,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T16:57:50</x:v>
+        <x:v>2021-10-31T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +151,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T16:57:50</x:v>
+        <x:v>2021-10-30T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +162,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T16:57:50</x:v>
+        <x:v>2021-10-29T13:51:14</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +173,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-27T16:57:50</x:v>
+        <x:v>2021-10-28T13:51:14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R7bded9d9d57a486f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R446becc8c19e475c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -74,7 +74,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T13:51:14</x:v>
+        <x:v>2021-11-06T16:13:05</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +85,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T13:51:14</x:v>
+        <x:v>2021-11-05T16:13:05</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +96,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T13:51:14</x:v>
+        <x:v>2021-11-04T16:13:05</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +107,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T13:51:14</x:v>
+        <x:v>2021-11-03T16:13:06</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +118,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T13:51:14</x:v>
+        <x:v>2021-11-02T16:13:06</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +129,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T13:51:14</x:v>
+        <x:v>2021-11-01T16:13:06</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +140,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T13:51:14</x:v>
+        <x:v>2021-10-31T16:13:06</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +151,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T13:51:14</x:v>
+        <x:v>2021-10-30T16:13:06</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +162,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T13:51:14</x:v>
+        <x:v>2021-10-29T16:13:06</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +173,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T13:51:14</x:v>
+        <x:v>2021-10-28T16:13:06</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R446becc8c19e475c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R1ba01aa81e214074"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -74,7 +74,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T16:13:05</x:v>
+        <x:v>2021-11-06T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +85,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T16:13:05</x:v>
+        <x:v>2021-11-05T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +96,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T16:13:05</x:v>
+        <x:v>2021-11-04T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +107,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T16:13:06</x:v>
+        <x:v>2021-11-03T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +118,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T16:13:06</x:v>
+        <x:v>2021-11-02T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +129,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T16:13:06</x:v>
+        <x:v>2021-11-01T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +140,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T16:13:06</x:v>
+        <x:v>2021-10-31T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +151,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T16:13:06</x:v>
+        <x:v>2021-10-30T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +162,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T16:13:06</x:v>
+        <x:v>2021-10-29T21:06:43</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +173,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T16:13:06</x:v>
+        <x:v>2021-10-28T21:06:43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R1ba01aa81e214074"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="Rcd8b4d9ef6da41bf"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -74,7 +74,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T21:06:43</x:v>
+        <x:v>2021-11-06T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +85,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T21:06:43</x:v>
+        <x:v>2021-11-05T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +96,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T21:06:43</x:v>
+        <x:v>2021-11-04T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +107,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T21:06:43</x:v>
+        <x:v>2021-11-03T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +118,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T21:06:43</x:v>
+        <x:v>2021-11-02T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +129,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T21:06:43</x:v>
+        <x:v>2021-11-01T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +140,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T21:06:43</x:v>
+        <x:v>2021-10-31T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +151,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T21:06:43</x:v>
+        <x:v>2021-10-30T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +162,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T21:06:43</x:v>
+        <x:v>2021-10-29T22:09:14</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +173,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T21:06:43</x:v>
+        <x:v>2021-10-28T22:09:14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="Rcd8b4d9ef6da41bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R1231e6053a00483c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -74,7 +74,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T22:09:14</x:v>
+        <x:v>2021-11-12T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +85,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T22:09:14</x:v>
+        <x:v>2021-11-11T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +96,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T22:09:14</x:v>
+        <x:v>2021-11-10T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +107,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T22:09:14</x:v>
+        <x:v>2021-11-09T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +118,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-02T22:09:14</x:v>
+        <x:v>2021-11-08T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +129,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-01T22:09:14</x:v>
+        <x:v>2021-11-07T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +140,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-31T22:09:14</x:v>
+        <x:v>2021-11-06T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +151,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-30T22:09:14</x:v>
+        <x:v>2021-11-05T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +162,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-29T22:09:14</x:v>
+        <x:v>2021-11-04T10:49:38</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +173,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-10-28T22:09:14</x:v>
+        <x:v>2021-11-03T10:49:38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R1231e6053a00483c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R29353049cb1544ff"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,11 +10,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="0"/>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font/>
     <x:font>
       <x:b/>
       <x:color rgb="FFFFFFFF"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:color theme="10"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -37,12 +41,13 @@
   <x:cellStyleXfs count="1">
     <x:xf/>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf/>
     <x:xf fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <x:xf fontId="2" xfId="0"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>
@@ -74,7 +79,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-12T10:49:38</x:v>
+        <x:v>2022-01-07T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -85,7 +90,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-11T10:49:38</x:v>
+        <x:v>2022-01-06T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -96,7 +101,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-10T10:49:38</x:v>
+        <x:v>2022-01-05T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -107,7 +112,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-09T10:49:38</x:v>
+        <x:v>2022-01-04T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -118,7 +123,7 @@
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-08T10:49:38</x:v>
+        <x:v>2022-01-03T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -129,7 +134,7 @@
         <x:v>6000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-07T10:49:38</x:v>
+        <x:v>2022-01-02T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -140,7 +145,7 @@
         <x:v>7000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-06T10:49:38</x:v>
+        <x:v>2022-01-01T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -151,7 +156,7 @@
         <x:v>8000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-05T10:49:38</x:v>
+        <x:v>2021-12-31T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -162,7 +167,7 @@
         <x:v>9000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-04T10:49:38</x:v>
+        <x:v>2021-12-30T21:16:39</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -173,7 +178,7 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="C" s="2" t="d">
-        <x:v>2021-11-03T10:49:38</x:v>
+        <x:v>2021-12-29T21:16:39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Examples/example2.xlsx
+++ b/Examples/example2.xlsx
@@ -2,14 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R29353049cb1544ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example name" sheetId="1" r:id="R21d3faeb824c4a9e"/>
   </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Example name'!$A$1:$C$1</x:definedName>
+  </x:definedNames>
 </x:workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="0"/>
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="3453" formatCode="0.00%"/>
+  </x:numFmts>
   <x:fonts count="3">
     <x:font/>
     <x:font>
@@ -41,19 +46,36 @@
   <x:cellStyleXfs count="1">
     <x:xf/>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="8">
     <x:xf/>
     <x:xf fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <x:xf fontId="2" xfId="0"/>
+      <x:alignment horizontal="left" vertical="center" wrapText="0"/>
+    </x:xf>
+    <x:xf>
+      <x:alignment vertical="top" wrapText="0"/>
+    </x:xf>
+    <x:xf>
+      <x:alignment vertical="top" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <x:alignment vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <x:alignment vertical="top"/>
+    </x:xf>
+    <x:xf fontId="2" xfId="0">
+      <x:alignment vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="3453">
+      <x:alignment vertical="top"/>
+    </x:xf>
   </x:cellXfs>
 </x:styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="A1:C11"/>
   <x:cols>
     <x:col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -61,127 +83,147 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1">
-      <x:c r="A" s="1" t="str">
+      <x:c r="A1" s="1" t="str">
         <x:v>Column #1</x:v>
       </x:c>
-      <x:c r="B" s="1" t="str">
+      <x:c r="B1" s="1" t="str">
         <x:v>Column #2</x:v>
       </x:c>
-      <x:c r="C" s="1" t="str">
+      <x:c r="C1" s="1" t="str">
         <x:v>Column #3</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #1</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A2" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B2" s="2" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2022-01-07T21:16:39</x:v>
+      <x:c r="C2" s="4" t="d">
+        <x:v>2024-12-02</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #2</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A3" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #2</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B3" s="2" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2022-01-06T21:16:39</x:v>
+      <x:c r="C3" s="4" t="d">
+        <x:v>2024-12-01</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #3</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A4" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B4" s="2" t="n">
         <x:v>3000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2022-01-05T21:16:39</x:v>
+      <x:c r="C4" s="4" t="d">
+        <x:v>2024-11-30</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #4</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A5" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #4</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B5" s="2" t="n">
         <x:v>4000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2022-01-04T21:16:39</x:v>
+      <x:c r="C5" s="4" t="d">
+        <x:v>2024-11-29</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #5</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A6" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #5</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B6" s="2" t="n">
         <x:v>5000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2022-01-03T21:16:39</x:v>
+      <x:c r="C6" s="4" t="d">
+        <x:v>2024-11-28</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #6</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A7" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #6</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B7" s="2" t="n">
         <x:v>6000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2022-01-02T21:16:39</x:v>
+      <x:c r="C7" s="4" t="d">
+        <x:v>2024-11-27</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #7</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A8" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #7</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B8" s="2" t="n">
         <x:v>7000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2022-01-01T21:16:39</x:v>
+      <x:c r="C8" s="4" t="d">
+        <x:v>2024-11-26</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #8</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A9" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #8</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B9" s="2" t="n">
         <x:v>8000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2021-12-31T21:16:39</x:v>
+      <x:c r="C9" s="4" t="d">
+        <x:v>2024-11-25</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #9</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A10" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #9</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B10" s="2" t="n">
         <x:v>9000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2021-12-30T21:16:39</x:v>
+      <x:c r="C10" s="4" t="d">
+        <x:v>2024-11-24</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
-      <x:c r="A" s="0" t="str">
-        <x:v>Text #10</x:v>
-      </x:c>
-      <x:c r="B" s="0" t="n">
+      <x:c r="A11" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text #10</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B11" s="2" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="C" s="2" t="d">
-        <x:v>2021-12-29T21:16:39</x:v>
+      <x:c r="C11" s="4" t="d">
+        <x:v>2024-11-23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:C11"/>
+  <x:autoFilter ref="A1:C1"/>
 </x:worksheet>
 </file>